--- a/MCNP Example Runs/Ex1-2/Ex1-2.xlsx
+++ b/MCNP Example Runs/Ex1-2/Ex1-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="Source" sheetId="11" r:id="rId7"/>
     <sheet name="Materials" sheetId="4" r:id="rId8"/>
     <sheet name="Tally" sheetId="10" r:id="rId9"/>
-    <sheet name="Output" sheetId="5" r:id="rId10"/>
-    <sheet name="Data" sheetId="8" r:id="rId11"/>
+    <sheet name="Vised" sheetId="12" r:id="rId10"/>
+    <sheet name="Output" sheetId="5" r:id="rId11"/>
+    <sheet name="Data" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -364,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -388,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="0" shapeId="0">
+    <comment ref="F24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -419,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="304">
   <si>
     <t>Index</t>
   </si>
@@ -813,12 +814,6 @@
     <t>1 -2</t>
   </si>
   <si>
-    <t>imp: n=1</t>
-  </si>
-  <si>
-    <t>imp: n=0</t>
-  </si>
-  <si>
     <t>$ Pu sphere</t>
   </si>
   <si>
@@ -829,6 +824,516 @@
   </si>
   <si>
     <t>raw cell cards code</t>
+  </si>
+  <si>
+    <t>imp:n=1</t>
+  </si>
+  <si>
+    <t>imp:n=0</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>0.2622</t>
+  </si>
+  <si>
+    <t>0.0114</t>
+  </si>
+  <si>
+    <t>0.0363</t>
+  </si>
+  <si>
+    <t>0.0093</t>
+  </si>
+  <si>
+    <t>Vised</t>
+  </si>
+  <si>
+    <t>keff</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>for:</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>1-2:</t>
+  </si>
+  <si>
+    <t>Bare</t>
+  </si>
+  <si>
+    <t>sphere</t>
+  </si>
+  <si>
+    <t>w/</t>
+  </si>
+  <si>
+    <t>Ni,</t>
+  </si>
+  <si>
+    <t>PMF-001</t>
+  </si>
+  <si>
+    <t>probid</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>fission</t>
+  </si>
+  <si>
+    <t>neutron</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>were</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>card.</t>
+  </si>
+  <si>
+    <t>criticality</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>scheduled</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>cycles</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>nominally</t>
+  </si>
+  <si>
+    <t>neutrons</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>cycle.</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>histories</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>histories.</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>requested</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>cells</t>
+  </si>
+  <si>
+    <t>fissionable</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>sampled</t>
+  </si>
+  <si>
+    <t>had</t>
+  </si>
+  <si>
+    <t>points.</t>
+  </si>
+  <si>
+    <t>comment.</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>fission-source</t>
+  </si>
+  <si>
+    <t>entropy</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>cycles:</t>
+  </si>
+  <si>
+    <t>H=</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>std.dev.=</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>having</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>std.dev.</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>cycles.</t>
+  </si>
+  <si>
+    <t>At</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>discarded.</t>
+  </si>
+  <si>
+    <t>convergence</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>passed.</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>normality</t>
+  </si>
+  <si>
+    <t>applied</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>collision,</t>
+  </si>
+  <si>
+    <t>absorption,</t>
+  </si>
+  <si>
+    <t>track-length</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>are:</t>
+  </si>
+  <si>
+    <t>k(</t>
+  </si>
+  <si>
+    <t>collision)</t>
+  </si>
+  <si>
+    <t>appear</t>
+  </si>
+  <si>
+    <t>normally</t>
+  </si>
+  <si>
+    <t>distributed</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>k(absorption)</t>
+  </si>
+  <si>
+    <t>k(trk</t>
+  </si>
+  <si>
+    <t>length)</t>
+  </si>
+  <si>
+    <t>-----------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>estimated</t>
+  </si>
+  <si>
+    <t>combined</t>
+  </si>
+  <si>
+    <t>collision/absorption/track-length</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>deviation</t>
+  </si>
+  <si>
+    <t>68,</t>
+  </si>
+  <si>
+    <t>95,</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>intervals</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>1.00101,</t>
+  </si>
+  <si>
+    <t>1.00165,</t>
+  </si>
+  <si>
+    <t>(col/abs/tl)</t>
+  </si>
+  <si>
+    <t>prompt</t>
+  </si>
+  <si>
+    <t>removal</t>
+  </si>
+  <si>
+    <t>lifetime</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>causing</t>
+  </si>
+  <si>
+    <t>mev</t>
+  </si>
+  <si>
+    <t>corresponding</t>
+  </si>
+  <si>
+    <t>lethargy</t>
+  </si>
+  <si>
+    <t>percentages</t>
+  </si>
+  <si>
+    <t>fissions</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>thermal,</t>
+  </si>
+  <si>
+    <t>intermediate,</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>ranges</t>
+  </si>
+  <si>
+    <t>(&lt;0.625</t>
+  </si>
+  <si>
+    <t>ev):</t>
+  </si>
+  <si>
+    <t>(0.625</t>
+  </si>
+  <si>
+    <t>ev</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>kev):</t>
+  </si>
+  <si>
+    <t>(&gt;100</t>
+  </si>
+  <si>
+    <t>produced</t>
+  </si>
+  <si>
+    <t>absorbed</t>
+  </si>
+  <si>
+    <t>(capture</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>fission)</t>
+  </si>
+  <si>
+    <t>geometry</t>
   </si>
 </sst>
 </file>
@@ -905,7 +1410,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,6 +1435,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -976,7 +1487,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -998,6 +1509,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1477,8 +1992,100 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11430" y="567690"/>
-          <a:ext cx="2899661" cy="830652"/>
+          <a:off x="11430" y="574221"/>
+          <a:ext cx="2906737" cy="839361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>367427</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34290" y="632460"/>
+          <a:ext cx="3533537" cy="3642360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>404006</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>110563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Screen Clipping"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="548640"/>
+          <a:ext cx="1684166" cy="842083"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1902,17 +2509,1409 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="Index!A1" display="Index"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="11.47265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M10" t="s">
+        <v>157</v>
+      </c>
+      <c r="N10" s="15">
+        <v>40012</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0.72502314814814817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" t="s">
+        <v>166</v>
+      </c>
+      <c r="N13" t="s">
+        <v>167</v>
+      </c>
+      <c r="O13" t="s">
+        <v>168</v>
+      </c>
+      <c r="P13" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>158</v>
+      </c>
+      <c r="R13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" t="s">
+        <v>179</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" t="s">
+        <v>180</v>
+      </c>
+      <c r="O14" t="s">
+        <v>181</v>
+      </c>
+      <c r="P14">
+        <v>250</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>177</v>
+      </c>
+      <c r="R14" t="s">
+        <v>182</v>
+      </c>
+      <c r="S14" t="s">
+        <v>183</v>
+      </c>
+      <c r="T14">
+        <v>5000</v>
+      </c>
+      <c r="U14" t="s">
+        <v>184</v>
+      </c>
+      <c r="V14" t="s">
+        <v>185</v>
+      </c>
+      <c r="W14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="B15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15">
+        <v>250615</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>190</v>
+      </c>
+      <c r="M15" t="s">
+        <v>178</v>
+      </c>
+      <c r="N15">
+        <v>200</v>
+      </c>
+      <c r="O15" t="s">
+        <v>191</v>
+      </c>
+      <c r="P15" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>182</v>
+      </c>
+      <c r="R15">
+        <v>1000623</v>
+      </c>
+      <c r="S15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H18" t="s">
+        <v>196</v>
+      </c>
+      <c r="I18" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>197</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" t="s">
+        <v>181</v>
+      </c>
+      <c r="P18">
+        <v>1251238</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>160</v>
+      </c>
+      <c r="R18" t="s">
+        <v>161</v>
+      </c>
+      <c r="S18" t="s">
+        <v>162</v>
+      </c>
+      <c r="T18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" t="s">
+        <v>202</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="s">
+        <v>162</v>
+      </c>
+      <c r="N19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" t="s">
+        <v>210</v>
+      </c>
+      <c r="I23" t="s">
+        <v>211</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="9">
+        <v>5.71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" t="s">
+        <v>218</v>
+      </c>
+      <c r="H27" t="s">
+        <v>219</v>
+      </c>
+      <c r="I27" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" t="s">
+        <v>211</v>
+      </c>
+      <c r="H29" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" t="s">
+        <v>228</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24">
+      <c r="B33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24">
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" t="s">
+        <v>236</v>
+      </c>
+      <c r="J34" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" t="s">
+        <v>175</v>
+      </c>
+      <c r="L34" t="s">
+        <v>158</v>
+      </c>
+      <c r="M34" t="s">
+        <v>238</v>
+      </c>
+      <c r="N34" t="s">
+        <v>239</v>
+      </c>
+      <c r="O34" t="s">
+        <v>240</v>
+      </c>
+      <c r="P34" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>241</v>
+      </c>
+      <c r="R34" t="s">
+        <v>146</v>
+      </c>
+      <c r="S34" t="s">
+        <v>219</v>
+      </c>
+      <c r="T34" t="s">
+        <v>242</v>
+      </c>
+      <c r="U34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24">
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" t="s">
+        <v>245</v>
+      </c>
+      <c r="E36" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" t="s">
+        <v>242</v>
+      </c>
+      <c r="G36" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" t="s">
+        <v>247</v>
+      </c>
+      <c r="I36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J36" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" t="s">
+        <v>158</v>
+      </c>
+      <c r="L36">
+        <v>95</v>
+      </c>
+      <c r="M36" t="s">
+        <v>250</v>
+      </c>
+      <c r="N36" t="s">
+        <v>251</v>
+      </c>
+      <c r="O36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24">
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" t="s">
+        <v>246</v>
+      </c>
+      <c r="G37" t="s">
+        <v>247</v>
+      </c>
+      <c r="H37" t="s">
+        <v>248</v>
+      </c>
+      <c r="I37" t="s">
+        <v>249</v>
+      </c>
+      <c r="J37" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37">
+        <v>95</v>
+      </c>
+      <c r="L37" t="s">
+        <v>250</v>
+      </c>
+      <c r="M37" t="s">
+        <v>251</v>
+      </c>
+      <c r="N37" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24">
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F38" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" t="s">
+        <v>246</v>
+      </c>
+      <c r="H38" t="s">
+        <v>247</v>
+      </c>
+      <c r="I38" t="s">
+        <v>248</v>
+      </c>
+      <c r="J38" t="s">
+        <v>249</v>
+      </c>
+      <c r="K38" t="s">
+        <v>158</v>
+      </c>
+      <c r="L38">
+        <v>95</v>
+      </c>
+      <c r="M38" t="s">
+        <v>250</v>
+      </c>
+      <c r="N38" t="s">
+        <v>251</v>
+      </c>
+      <c r="O38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24">
+      <c r="B41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24">
+      <c r="B42" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24">
+      <c r="B43" t="s">
+        <v>257</v>
+      </c>
+      <c r="C43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" t="s">
+        <v>259</v>
+      </c>
+      <c r="F43" t="s">
+        <v>260</v>
+      </c>
+      <c r="G43" t="s">
+        <v>261</v>
+      </c>
+      <c r="H43" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" t="s">
+        <v>157</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1.0003500000000001</v>
+      </c>
+      <c r="K43" t="s">
+        <v>182</v>
+      </c>
+      <c r="L43" t="s">
+        <v>262</v>
+      </c>
+      <c r="M43" t="s">
+        <v>259</v>
+      </c>
+      <c r="N43" t="s">
+        <v>263</v>
+      </c>
+      <c r="O43" t="s">
+        <v>264</v>
+      </c>
+      <c r="P43" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q43" s="18">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="R43" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24">
+      <c r="B44" t="s">
+        <v>257</v>
+      </c>
+      <c r="C44" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24">
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" t="s">
+        <v>259</v>
+      </c>
+      <c r="E45" t="s">
+        <v>265</v>
+      </c>
+      <c r="F45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" t="s">
+        <v>267</v>
+      </c>
+      <c r="H45">
+        <v>99</v>
+      </c>
+      <c r="I45" t="s">
+        <v>250</v>
+      </c>
+      <c r="J45" t="s">
+        <v>146</v>
+      </c>
+      <c r="K45" t="s">
+        <v>251</v>
+      </c>
+      <c r="L45" t="s">
+        <v>268</v>
+      </c>
+      <c r="M45" t="s">
+        <v>269</v>
+      </c>
+      <c r="N45">
+        <v>0.99968999999999997</v>
+      </c>
+      <c r="O45" t="s">
+        <v>175</v>
+      </c>
+      <c r="P45" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q45">
+        <v>0.99904999999999999</v>
+      </c>
+      <c r="R45" t="s">
+        <v>175</v>
+      </c>
+      <c r="S45" t="s">
+        <v>271</v>
+      </c>
+      <c r="T45" t="s">
+        <v>178</v>
+      </c>
+      <c r="U45">
+        <v>0.99861999999999995</v>
+      </c>
+      <c r="V45" t="s">
+        <v>175</v>
+      </c>
+      <c r="W45">
+        <v>1.0020800000000001</v>
+      </c>
+      <c r="X45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24">
+      <c r="B46" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24">
+      <c r="B47" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" t="s">
+        <v>260</v>
+      </c>
+      <c r="F47" t="s">
+        <v>272</v>
+      </c>
+      <c r="G47" t="s">
+        <v>273</v>
+      </c>
+      <c r="H47" t="s">
+        <v>274</v>
+      </c>
+      <c r="I47" t="s">
+        <v>275</v>
+      </c>
+      <c r="J47" t="s">
+        <v>157</v>
+      </c>
+      <c r="K47" s="9">
+        <v>3.7773999999999998E-9</v>
+      </c>
+      <c r="L47" t="s">
+        <v>276</v>
+      </c>
+      <c r="M47" t="s">
+        <v>182</v>
+      </c>
+      <c r="N47" t="s">
+        <v>262</v>
+      </c>
+      <c r="O47" t="s">
+        <v>259</v>
+      </c>
+      <c r="P47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>264</v>
+      </c>
+      <c r="R47" t="s">
+        <v>181</v>
+      </c>
+      <c r="S47" s="9">
+        <v>4.5183000000000002E-12</v>
+      </c>
+      <c r="T47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24">
+      <c r="B48" t="s">
+        <v>257</v>
+      </c>
+      <c r="C48" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21">
+      <c r="B49" t="s">
+        <v>257</v>
+      </c>
+      <c r="C49" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" t="s">
+        <v>277</v>
+      </c>
+      <c r="G49" t="s">
+        <v>278</v>
+      </c>
+      <c r="H49" t="s">
+        <v>160</v>
+      </c>
+      <c r="I49" t="s">
+        <v>157</v>
+      </c>
+      <c r="J49" s="9">
+        <v>1.9137</v>
+      </c>
+      <c r="K49" t="s">
+        <v>279</v>
+      </c>
+      <c r="L49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21">
+      <c r="B50" t="s">
+        <v>257</v>
+      </c>
+      <c r="C50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" t="s">
+        <v>277</v>
+      </c>
+      <c r="E50" t="s">
+        <v>280</v>
+      </c>
+      <c r="F50" t="s">
+        <v>175</v>
+      </c>
+      <c r="G50" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50" t="s">
+        <v>223</v>
+      </c>
+      <c r="I50" t="s">
+        <v>161</v>
+      </c>
+      <c r="J50" t="s">
+        <v>281</v>
+      </c>
+      <c r="K50" t="s">
+        <v>278</v>
+      </c>
+      <c r="L50" t="s">
+        <v>160</v>
+      </c>
+      <c r="M50" t="s">
+        <v>157</v>
+      </c>
+      <c r="N50" s="9">
+        <v>1.2523</v>
+      </c>
+      <c r="O50" t="s">
+        <v>279</v>
+      </c>
+      <c r="P50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21">
+      <c r="B51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21">
+      <c r="B52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" t="s">
+        <v>282</v>
+      </c>
+      <c r="E52" t="s">
+        <v>181</v>
+      </c>
+      <c r="F52" t="s">
+        <v>283</v>
+      </c>
+      <c r="G52" t="s">
+        <v>284</v>
+      </c>
+      <c r="H52" t="s">
+        <v>285</v>
+      </c>
+      <c r="I52" t="s">
+        <v>184</v>
+      </c>
+      <c r="J52" t="s">
+        <v>286</v>
+      </c>
+      <c r="K52" t="s">
+        <v>158</v>
+      </c>
+      <c r="L52" t="s">
+        <v>287</v>
+      </c>
+      <c r="M52" t="s">
+        <v>288</v>
+      </c>
+      <c r="N52" t="s">
+        <v>178</v>
+      </c>
+      <c r="O52" t="s">
+        <v>289</v>
+      </c>
+      <c r="P52" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>290</v>
+      </c>
+      <c r="R52" t="s">
+        <v>243</v>
+      </c>
+      <c r="S52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21">
+      <c r="B53" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" t="s">
+        <v>291</v>
+      </c>
+      <c r="D53" t="s">
+        <v>292</v>
+      </c>
+      <c r="E53" s="17">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>293</v>
+      </c>
+      <c r="G53" t="s">
+        <v>294</v>
+      </c>
+      <c r="H53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53" t="s">
+        <v>296</v>
+      </c>
+      <c r="K53" s="17">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="L53" t="s">
+        <v>297</v>
+      </c>
+      <c r="M53" t="s">
+        <v>296</v>
+      </c>
+      <c r="N53" s="17">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="O53" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21">
+      <c r="B54" t="s">
+        <v>257</v>
+      </c>
+      <c r="C54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21">
+      <c r="B55" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55" t="s">
+        <v>298</v>
+      </c>
+      <c r="H55" t="s">
+        <v>185</v>
+      </c>
+      <c r="I55" t="s">
+        <v>161</v>
+      </c>
+      <c r="J55" t="s">
+        <v>299</v>
+      </c>
+      <c r="K55" t="s">
+        <v>300</v>
+      </c>
+      <c r="L55" t="s">
+        <v>301</v>
+      </c>
+      <c r="M55" t="s">
+        <v>302</v>
+      </c>
+      <c r="N55" t="s">
+        <v>286</v>
+      </c>
+      <c r="O55" t="s">
+        <v>198</v>
+      </c>
+      <c r="P55" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>182</v>
+      </c>
+      <c r="R55" t="s">
+        <v>160</v>
+      </c>
+      <c r="S55" t="s">
+        <v>157</v>
+      </c>
+      <c r="T55" s="9">
+        <v>3.0510000000000002</v>
+      </c>
+      <c r="U55" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21">
+      <c r="B56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" t="s">
+        <v>160</v>
+      </c>
+      <c r="F56" t="s">
+        <v>184</v>
+      </c>
+      <c r="G56" t="s">
+        <v>298</v>
+      </c>
+      <c r="H56" t="s">
+        <v>185</v>
+      </c>
+      <c r="I56" t="s">
+        <v>161</v>
+      </c>
+      <c r="J56" t="s">
+        <v>299</v>
+      </c>
+      <c r="K56" t="s">
+        <v>300</v>
+      </c>
+      <c r="L56" t="s">
+        <v>301</v>
+      </c>
+      <c r="M56" t="s">
+        <v>302</v>
+      </c>
+      <c r="N56" t="s">
+        <v>286</v>
+      </c>
+      <c r="O56" t="s">
+        <v>198</v>
+      </c>
+      <c r="P56" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>303</v>
+      </c>
+      <c r="R56" t="s">
+        <v>199</v>
+      </c>
+      <c r="S56" t="s">
+        <v>157</v>
+      </c>
+      <c r="T56" s="9">
+        <v>3.0501</v>
+      </c>
+      <c r="U56" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21">
+      <c r="B57" t="s">
+        <v>257</v>
+      </c>
+      <c r="C57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21">
+      <c r="B58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58" t="s">
+        <v>196</v>
+      </c>
+      <c r="F58" t="s">
+        <v>181</v>
+      </c>
+      <c r="G58" t="s">
+        <v>184</v>
+      </c>
+      <c r="H58" t="s">
+        <v>298</v>
+      </c>
+      <c r="I58" t="s">
+        <v>185</v>
+      </c>
+      <c r="J58" t="s">
+        <v>160</v>
+      </c>
+      <c r="K58" t="s">
+        <v>157</v>
+      </c>
+      <c r="L58" s="18">
+        <v>3.1549999999999998</v>
+      </c>
+      <c r="M58" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21">
+      <c r="B59" t="s">
+        <v>257</v>
+      </c>
+      <c r="C59" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21">
+      <c r="B60" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="Index!A1" display="Index"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2166,8 +4165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2215,7 +4214,7 @@
         <v>128</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2223,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2236,11 +4235,11 @@
         <v>-1</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H18" t="str">
         <f>A18&amp;" "&amp;C18&amp;" "&amp;D18&amp;" "&amp;E18&amp;" "&amp;F18&amp;" "&amp;G18&amp;" "&amp;B18</f>
-        <v>1 1 0.04029014 -1  imp: n=1 $ Pu sphere</v>
+        <v>1 1 0.04029014 -1  imp:n=1 $ Pu sphere</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2248,7 +4247,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2261,11 +4260,11 @@
         <v>129</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" ref="H19:H20" si="0">A19&amp;" "&amp;C19&amp;" "&amp;D19&amp;" "&amp;E19&amp;" "&amp;F19&amp;" "&amp;G19&amp;" "&amp;B19</f>
-        <v>2 2 0.093122 1 -2  imp: n=1 $ Ni Coating</v>
+        <v>2 2 0.093122 1 -2  imp:n=1 $ Ni Coating</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2279,14 +4278,14 @@
         <v>0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>999 0  2  imp: n=0 $ Void Universe</v>
+        <v>999 0  2  imp:n=0 $ Void Universe</v>
       </c>
     </row>
   </sheetData>
@@ -2304,7 +4303,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2600,10 +4599,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2663,7 +4662,7 @@
         <v>121</v>
       </c>
       <c r="E11" t="str">
-        <f>A11&amp;" "&amp;B33&amp;" "&amp;B11</f>
+        <f>A11&amp;" "&amp;B32&amp;" "&amp;B11</f>
         <v>m1 94239.66c 0.037047 94240.66c 0.0017512 94241.66c 0.00011674 31000.66c 0.0013752 $ Pu Sphere Material</v>
       </c>
     </row>
@@ -2675,8 +4674,8 @@
         <v>124</v>
       </c>
       <c r="E12" t="str">
-        <f>A12&amp;" "&amp;B34&amp;" "&amp;B12</f>
-        <v>m2 28000.66c 0.093122 $ Ni Cover</v>
+        <f>A12&amp;" "&amp;B33&amp;" "&amp;B12</f>
+        <v>m2 28058.66c 0.6808 28060.66c 0.2622 28061.66c 0.0114 28062.66c 0.0363 28064.66c 0.0093 $ Ni Cover</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2820,46 +4819,146 @@
         <v>31000.66c 0.0013752</v>
       </c>
     </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25">
+        <v>28</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" t="str">
+        <f>C25&amp;D25&amp;$F$16</f>
+        <v>28058.66c</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0.68079999999999996</v>
+      </c>
+      <c r="G25" t="str">
+        <f>E25&amp;" "&amp;F25</f>
+        <v>28058.66c 0.6808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26">
+        <v>28</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" ref="E26:E29" si="1">C26&amp;D26&amp;$F$16</f>
+        <v>28060.66c</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" ref="G26:G29" si="2">E26&amp;" "&amp;F26</f>
+        <v>28060.66c 0.2622</v>
+      </c>
+    </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" t="s">
-        <v>117</v>
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>28061.66c</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>28061.66c 0.0114</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>119</v>
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28">
+        <v>28</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>28062.66c</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>28062.66c 0.0363</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
         <v>125</v>
@@ -2868,48 +4967,47 @@
         <v>28</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E29" t="str">
-        <f>C29&amp;D29&amp;$F$16</f>
-        <v>28000.66c</v>
-      </c>
-      <c r="F29" s="10">
-        <f>General!B17</f>
-        <v>9.3121999999999996E-2</v>
+        <f t="shared" si="1"/>
+        <v>28064.66c</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="G29" t="str">
-        <f>E29&amp;" "&amp;F29</f>
-        <v>28000.66c 0.093122</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>28064.66c 0.0093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="str">
+        <f>G18&amp;" "&amp;G19&amp;" "&amp;G20&amp;" "&amp;G21</f>
+        <v>94239.66c 0.037047 94240.66c 0.0017512 94241.66c 0.00011674 31000.66c 0.0013752</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B33" t="str">
-        <f>G18&amp;" "&amp;G19&amp;" "&amp;G20&amp;" "&amp;G21</f>
-        <v>94239.66c 0.037047 94240.66c 0.0017512 94241.66c 0.00011674 31000.66c 0.0013752</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" t="str">
-        <f>G29</f>
-        <v>28000.66c 0.093122</v>
+        <f>G25&amp;" "&amp;G26&amp;" "&amp;G27&amp;" "&amp;G28&amp;" "&amp;G29</f>
+        <v>28058.66c 0.6808 28060.66c 0.2622 28061.66c 0.0114 28062.66c 0.0363 28064.66c 0.0093</v>
       </c>
     </row>
   </sheetData>
